--- a/medicine/Mort/Massacre_de_Kalagon/Massacre_de_Kalagon.xlsx
+++ b/medicine/Mort/Massacre_de_Kalagon/Massacre_de_Kalagon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massacre de Kalagon est un massacre commis le 7 juillet 1945 contre des habitants du village de Kalagon, dans le sud de la Birmanie, par des membres du 3e bataillon, du  215e régiment et de l'OC Moulmein Kempeitai de l'armée impériale japonaise. Ces unités avaient reçu l'ordre du général de division Seiei Yamamoto, chef d'état-major de la 33e armée, de balayer la zone à la recherche de guérilleros qui auraient fait équipe avec des parachutistes britanniques.
 </t>
@@ -511,7 +523,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais occupent le village et rassemblent tous les habitants, certains dans la mosquée locale et d'autres dans différents bâtiments, pour les interroger. Des femmes et des enfants ont été violés et battus. Après avoir eu la confirmation que les civils avaient aidé les commandos britanniques, le major Ichikawa Seigi a ordonné que tous les habitants du village soient massacrés ; ces derniers ont été emmenés par groupes de quatre à dix personnes vers des puits voisins, les yeux bandés puis exécutés à la baïonnette, leurs corps étant jetés dans les puits. Le village a ensuite été incendié.
 On estime que 600 à 1000 villageois sont morts dans le massacre. Dix femmes considérées comme informateurs auraient échappé à la tuerie, bien qu'on puisse penser qu'elles auraient plutôt été utilisées comme femmes de réconfort. Deux d'entre eux se sont échappés, mais les autres ont disparu. Le massacre ayant été organisé précipitamment, plusieurs villageois ont pu s'enfuir et apporter leurs témoignages dans le cadre du procès pour crimes de guerre.
